--- a/annotations/ENg_ANN_golddata.xlsx
+++ b/annotations/ENg_ANN_golddata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/jhag_itu_dk/Documents/NLP/NLP_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theakaroline/Documents/GitHub/NLP_project/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{9F75503D-D61A-E242-9F27-57233EC2EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B890476-2F89-904C-9099-C8414D6A9AC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50469F11-8032-0947-8B49-8FEC8A5678E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6CD1853F-A450-BF4F-90EC-653684AB6D3F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17240" xr2:uid="{6CD1853F-A450-BF4F-90EC-653684AB6D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="539">
   <si>
     <t>[4,5,5,5,5,5,5,5,5,5,5,5]</t>
   </si>
@@ -1472,12 +1472,6 @@
     <t>[1,2,2,0]</t>
   </si>
   <si>
-    <t>[0,0,5,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,5,6,6,0,5]</t>
-  </si>
-  <si>
     <t>[1,2,2]</t>
   </si>
   <si>
@@ -1487,9 +1481,6 @@
     <t>[5,6,6,6,6,6,6]</t>
   </si>
   <si>
-    <t>[0,5,0]</t>
-  </si>
-  <si>
     <t>[0,0,0,0,0,3,4,0,0,0,0,0,5]</t>
   </si>
   <si>
@@ -1502,40 +1493,160 @@
     <t>[0,0,1,2,0]</t>
   </si>
   <si>
-    <t>[0,0,1,2,0] should it just be zeros</t>
-  </si>
-  <si>
     <t>[1,2,1,2,1,2,1,2]</t>
   </si>
   <si>
-    <t>[5,6,6,6,6,6] should it be two names?</t>
-  </si>
-  <si>
     <t>[0,1,2,0,0,]</t>
   </si>
   <si>
     <t>[0,0,0,0,0,0,3,4,4]</t>
   </si>
   <si>
-    <t>[3,0,0,0,0] shoud labour be in the name</t>
-  </si>
-  <si>
     <t>[0,0,1,2,0,]</t>
   </si>
   <si>
     <t>[3,4,4,0,0,0]</t>
   </si>
   <si>
-    <t>[5,6,6,6,6,6] should i tbe org</t>
-  </si>
-  <si>
-    <t>[5,6,6,6,6] ???</t>
-  </si>
-  <si>
-    <t>[3,4,4,4,4,4,4,4,] shoul dit be loc?</t>
-  </si>
-  <si>
     <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[1,2,2,2,2,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[1,2,2,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,3,4]</t>
+  </si>
+  <si>
+    <t>[1,2,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[3,4,4,4,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[1,2,2,2]</t>
+  </si>
+  <si>
+    <t>[0,3,4,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,03,4,4,0]</t>
+  </si>
+  <si>
+    <t>[0,1,2,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,1,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,1,2,0,1,2,0,0]</t>
+  </si>
+  <si>
+    <t>[3,4,4,0,5,6,6]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,3,4,4,4,0,0,0,0,0,0,0,0,0,0,0,0,0,03,4,4,0,0]</t>
+  </si>
+  <si>
+    <t>[1,0,1,2]</t>
+  </si>
+  <si>
+    <t>[1,2,2,0,1]</t>
+  </si>
+  <si>
+    <t>[0,1,2,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,3]</t>
+  </si>
+  <si>
+    <t>[0,0,0,5,0,5,6,0,5,0,0,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[3,4,0,0,0,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,5,6,6,0]</t>
+  </si>
+  <si>
+    <t>[1,2,00,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[5,6,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,1,2,0,0,0,1,2,0]</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,5,6,6,6,0]</t>
+  </si>
+  <si>
+    <t>[3,4,4,4,4]?</t>
+  </si>
+  <si>
+    <t>[1,2,0,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,5,6,6,0,0,0,1,2,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,1,2,0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,5,0,5,6,0,0,5]</t>
+  </si>
+  <si>
+    <t>[1,2,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,1,2,2]</t>
+  </si>
+  <si>
+    <t>[0,0,5,0,5,0,0,3,4,0,0]</t>
+  </si>
+  <si>
+    <t>[0,1,2,2,2,2]?</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,3,4,0]</t>
+  </si>
+  <si>
+    <t>[5,0,5,0,5]</t>
+  </si>
+  <si>
+    <t>[0,0,5,0,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,5,6,6,6,6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5,6,6,6,6,6] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3,0,0,0,0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3,4,4,4,4,4] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3,4,4,4,4,4,4,4,] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5,6,6,6,6,6,6] </t>
+  </si>
+  <si>
+    <t>[0,0,3,4,4,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0,5,0,0]</t>
   </si>
   <si>
     <r>
@@ -1547,128 +1658,11 @@
         <color theme="8" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>0,1,2,0,1,0,0,0,0,1,2,0,0] should the chinese be 0 ?</t>
+      <t xml:space="preserve">0,1,2,0,1,0,0,0,0,1,2,0,0] </t>
     </r>
   </si>
   <si>
-    <t>[1,2,2,2,2,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[1,2,2,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,3,4]</t>
-  </si>
-  <si>
-    <t>[1,2,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[3,4,4,4,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[5,6,6,6,6,6,6] ORG?</t>
-  </si>
-  <si>
-    <t>[1,2,2,2]</t>
-  </si>
-  <si>
-    <t>[0,0,3,4,4,0] or nothing</t>
-  </si>
-  <si>
-    <t>[0,3,4,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,03,4,4,0]</t>
-  </si>
-  <si>
-    <t>[0,1,2,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,1,2,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,1,2,0,1,2,0,0]</t>
-  </si>
-  <si>
-    <t>[3,4,4,0,5,6,6]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,3,4,4,4,0,0,0,0,0,0,0,0,0,0,0,0,0,03,4,4,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,5,0]</t>
-  </si>
-  <si>
-    <t>[1,0,1,2]</t>
-  </si>
-  <si>
-    <t>[1,2,2,0,1]</t>
-  </si>
-  <si>
-    <t>[0,1,2,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,3]</t>
-  </si>
-  <si>
-    <t>[0,0,0,5,0,5,6,0,5,0,0,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[3,4,0,0,0,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,5,6,6,0]</t>
-  </si>
-  <si>
-    <t>[1,2,00,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[5,6,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,1,2,0,0,0,1,2,0]</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,5,6,6,6,0]</t>
-  </si>
-  <si>
-    <t>[3,4,4,4,4]?</t>
-  </si>
-  <si>
-    <t>[1,2,0,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,5,6,6,0,0,0,1,2,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,1,2,0,0,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,5,0,5,6,0,0,5]</t>
-  </si>
-  <si>
-    <t>[1,2,0,0]</t>
-  </si>
-  <si>
-    <t>[0,0,0,1,2,2]</t>
-  </si>
-  <si>
-    <t>[0,0,5,0,5,0,0,3,4,0,0]</t>
-  </si>
-  <si>
-    <t>[0,1,2,2,2,2]?</t>
-  </si>
-  <si>
-    <t>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,3,4,0]</t>
-  </si>
-  <si>
-    <t>[5,0,5,0,5]</t>
+    <t>[0,0,0,0,5]</t>
   </si>
 </sst>
 </file>
@@ -1766,12 +1760,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2089,7 +2079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8794710-C8CC-B840-A1E7-BD3C0386E1F1}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3195,7 +3187,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>104</v>
@@ -3285,7 +3277,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>205</v>
@@ -3302,7 +3294,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>209</v>
@@ -3319,7 +3311,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>213</v>
@@ -3336,7 +3328,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>217</v>
@@ -3370,7 +3362,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>222</v>
@@ -3387,7 +3379,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>225</v>
@@ -3421,7 +3413,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>230</v>
@@ -3438,7 +3430,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>234</v>
@@ -3455,7 +3447,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>238</v>
@@ -3489,7 +3481,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>488</v>
+        <v>148</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>243</v>
@@ -3506,7 +3498,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>247</v>
@@ -3523,7 +3515,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>250</v>
@@ -3540,7 +3532,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>253</v>
@@ -3557,7 +3549,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>151</v>
+        <v>495</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>255</v>
@@ -3574,7 +3566,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>259</v>
@@ -3591,7 +3583,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>262</v>
@@ -3625,7 +3617,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>268</v>
@@ -3642,7 +3634,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>271</v>
@@ -3676,7 +3668,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>276</v>
@@ -3693,7 +3685,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>279</v>
@@ -3710,7 +3702,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>281</v>
@@ -3727,7 +3719,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>283</v>
@@ -3744,7 +3736,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>286</v>
@@ -3761,7 +3753,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>290</v>
@@ -3778,7 +3770,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>294</v>
@@ -3795,7 +3787,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>297</v>
@@ -3812,7 +3804,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>299</v>
@@ -3846,7 +3838,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>305</v>
@@ -3863,7 +3855,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>307</v>
@@ -3880,7 +3872,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>311</v>
@@ -3914,7 +3906,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>316</v>
@@ -3931,7 +3923,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>318</v>
@@ -3948,7 +3940,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>320</v>
@@ -3965,7 +3957,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>323</v>
@@ -3982,7 +3974,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>325</v>
@@ -3999,7 +3991,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>328</v>
@@ -4033,7 +4025,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>334</v>
@@ -4050,7 +4042,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>337</v>
@@ -4067,7 +4059,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>340</v>
@@ -4084,7 +4076,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>343</v>
@@ -4118,7 +4110,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>349</v>
@@ -4135,7 +4127,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>352</v>
@@ -4152,7 +4144,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>355</v>
@@ -4169,7 +4161,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>358</v>
@@ -4186,7 +4178,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>360</v>
@@ -4203,7 +4195,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>363</v>
@@ -4237,7 +4229,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>368</v>
@@ -4254,7 +4246,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>372</v>
@@ -4271,7 +4263,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>375</v>
@@ -4288,7 +4280,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>378</v>
@@ -4305,7 +4297,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>381</v>
@@ -4322,7 +4314,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>384</v>
@@ -4339,7 +4331,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>388</v>
@@ -4356,7 +4348,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>391</v>
@@ -4373,7 +4365,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>394</v>
@@ -4390,7 +4382,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>396</v>
@@ -4441,7 +4433,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>402</v>
@@ -4475,7 +4467,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>407</v>
@@ -4492,7 +4484,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>410</v>
@@ -4509,7 +4501,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>413</v>
@@ -4543,7 +4535,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>418</v>
@@ -4577,7 +4569,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>423</v>
@@ -4611,7 +4603,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>428</v>
@@ -4628,7 +4620,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>430</v>
@@ -4645,7 +4637,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>433</v>
@@ -4662,7 +4654,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>436</v>
@@ -4679,7 +4671,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>439</v>
@@ -4696,7 +4688,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>441</v>
@@ -4730,7 +4722,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>447</v>
@@ -4747,7 +4739,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>449</v>
@@ -4781,7 +4773,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>454</v>
@@ -4798,7 +4790,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>457</v>
@@ -4815,7 +4807,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>460</v>
@@ -4849,7 +4841,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>465</v>
@@ -4866,7 +4858,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>469</v>

--- a/annotations/ENg_ANN_golddata.xlsx
+++ b/annotations/ENg_ANN_golddata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theakaroline/Documents/GitHub/NLP_project/annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliehagen/Library/CloudStorage/OneDrive-ITU/NLP/NLP_project/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50469F11-8032-0947-8B49-8FEC8A5678E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C142F-A024-1743-A037-2BDCD69E8AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="17240" xr2:uid="{6CD1853F-A450-BF4F-90EC-653684AB6D3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{6CD1853F-A450-BF4F-90EC-653684AB6D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>[5,6,6,6,6,6,6,6,6,0,0,0,0]</t>
   </si>
   <si>
-    <t>[1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,,1,2,2,0,1,2,0,1,2,0,1,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2]</t>
-  </si>
-  <si>
     <t>[5,6,6,6,6]</t>
   </si>
   <si>
@@ -1550,9 +1547,6 @@
     <t>[3,4,4,0,5,6,6]</t>
   </si>
   <si>
-    <t>[0,0,0,0,0,0,3,4,4,4,0,0,0,0,0,0,0,0,0,0,0,0,0,03,4,4,0,0]</t>
-  </si>
-  <si>
     <t>[1,0,1,2]</t>
   </si>
   <si>
@@ -1581,9 +1575,6 @@
   </si>
   <si>
     <t>[0,0,1,2,0,0,0,1,2,0]</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>[0,0,0,0,5,6,6,6,0]</t>
@@ -1663,6 +1654,15 @@
   </si>
   <si>
     <t>[0,0,0,0,5]</t>
+  </si>
+  <si>
+    <t>[3,4,4,4,0,5]</t>
+  </si>
+  <si>
+    <t>[0,0,0,0,0,0,3,4,4,4,0,0,0,0,0,0,0,0,0,0,0,0,0,0,3,4,4,0,0]</t>
+  </si>
+  <si>
+    <t>[1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2,0,1,2]</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8794710-C8CC-B840-A1E7-BD3C0386E1F1}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>32</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>42</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>48</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>49</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>51</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>52</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>71</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>538</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>74</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>76</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>78</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>79</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>81</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>82</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>83</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>84</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>85</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>87</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>88</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>89</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>90</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>93</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>94</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>95</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>96</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>97</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>98</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>99</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>100</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>101</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>103</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>104</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>105</v>
@@ -3209,189 +3209,189 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,203 +3399,203 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3603,492 +3603,492 @@
         <v>113</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4096,424 +4096,424 @@
         <v>109</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -4521,67 +4521,67 @@
         <v>116</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -4589,305 +4589,305 @@
         <v>116</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -4895,16 +4895,16 @@
         <v>119</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
